--- a/results/mp/logistic/corona/confidence/210/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,120 +43,126 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>cancelled</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>problem</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
     <t>selfish</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -169,144 +175,138 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>hand</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>god</t>
   </si>
   <si>
-    <t>save</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
@@ -316,22 +316,25 @@
     <t>safety</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>increase</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>give</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>shop</t>
+    <t>check</t>
   </si>
   <si>
     <t>corona</t>
@@ -692,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,10 +703,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -761,13 +764,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -779,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -811,13 +814,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -829,31 +832,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="L4">
+        <v>54</v>
+      </c>
+      <c r="M4">
+        <v>54</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="L4">
-        <v>24</v>
-      </c>
-      <c r="M4">
-        <v>24</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -861,13 +864,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8157894736842105</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -879,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K5">
         <v>0.9</v>
@@ -911,13 +914,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -932,16 +935,16 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K6">
-        <v>0.8983050847457628</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -953,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -961,13 +964,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7941176470588235</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -979,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1011,13 +1014,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7842465753424658</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C8">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1029,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>0.8666666666666667</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1053,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1082,16 +1085,16 @@
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K9">
-        <v>0.8484848484848485</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1103,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1111,13 +1114,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7567567567567568</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1132,16 +1135,16 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K10">
-        <v>0.8482142857142857</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>315</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>315</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1153,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1161,13 +1164,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6956521739130435</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1179,31 +1182,31 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="L11">
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>7</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11">
-        <v>0.8381201044386423</v>
-      </c>
-      <c r="L11">
-        <v>321</v>
-      </c>
-      <c r="M11">
-        <v>321</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1211,13 +1214,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6842105263157895</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1229,19 +1232,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1253,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1261,13 +1264,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6842105263157895</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1279,19 +1282,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K13">
-        <v>0.8207547169811321</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L13">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="M13">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1303,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1311,13 +1314,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6538461538461539</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1329,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K14">
-        <v>0.8125</v>
+        <v>0.7734375</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1353,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1361,13 +1364,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6521739130434783</v>
+        <v>0.68</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1382,16 +1385,16 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K15">
-        <v>0.7931034482758621</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1403,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1411,13 +1414,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.64</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1429,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K16">
-        <v>0.7890625</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L16">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1453,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1461,13 +1464,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5686274509803921</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1479,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K17">
-        <v>0.7875</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L17">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1503,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1511,13 +1514,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5666666666666667</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1529,19 +1532,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K18">
-        <v>0.7816901408450704</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L18">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="M18">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1553,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1561,13 +1564,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5652173913043478</v>
+        <v>0.575</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1579,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1603,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1611,13 +1614,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.559322033898305</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1629,19 +1632,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.73125</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1653,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1661,13 +1664,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5174418604651163</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C21">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1679,19 +1682,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K21">
-        <v>0.7727272727272727</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1703,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1711,13 +1714,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5132275132275133</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C22">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1729,19 +1732,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K22">
-        <v>0.7682926829268293</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L22">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1753,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1761,13 +1764,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1779,19 +1782,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1803,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1811,13 +1814,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4871794871794872</v>
+        <v>0.5193798449612403</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1829,19 +1832,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K24">
-        <v>0.7446808510638298</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1861,37 +1864,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4838709677419355</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>15</v>
       </c>
-      <c r="D25">
-        <v>15</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>16</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K25">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1903,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1911,13 +1914,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4814814814814815</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1929,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K26">
-        <v>0.7209302325581395</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1953,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1961,13 +1964,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4630872483221476</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="C27">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D27">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1979,19 +1982,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K27">
-        <v>0.7142857142857143</v>
+        <v>0.6875</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2003,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2011,7 +2014,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4516129032258064</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C28">
         <v>14</v>
@@ -2029,19 +2032,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K28">
-        <v>0.6944444444444444</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2061,13 +2064,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4266666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C29">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2079,19 +2082,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K29">
-        <v>0.6842105263157895</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L29">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="M29">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2103,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2111,13 +2114,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3846153846153846</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2129,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K30">
-        <v>0.6825396825396826</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2153,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2161,13 +2164,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3611111111111111</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2179,19 +2182,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K31">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2203,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2211,13 +2214,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3513513513513514</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2229,19 +2232,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K32">
-        <v>0.6571428571428571</v>
+        <v>0.625</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2253,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2261,13 +2264,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3272727272727273</v>
+        <v>0.375</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2279,19 +2282,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K33">
-        <v>0.6428571428571429</v>
+        <v>0.625</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2303,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2311,13 +2314,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3090909090909091</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2329,19 +2332,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K34">
-        <v>0.625</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2353,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2361,13 +2364,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3035714285714285</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2379,19 +2382,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K35">
-        <v>0.625</v>
+        <v>0.5864406779661017</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2403,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2411,13 +2414,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C36">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2429,19 +2432,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K36">
-        <v>0.6205882352941177</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L36">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="M36">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2453,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>129</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2461,13 +2464,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2467532467532468</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2479,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K37">
-        <v>0.6071428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2503,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2511,13 +2514,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2380952380952381</v>
+        <v>0.2341269841269841</v>
       </c>
       <c r="C38">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2529,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K38">
-        <v>0.6</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2553,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2561,49 +2564,49 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1625</v>
+        <v>0.175</v>
       </c>
       <c r="C39">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>66</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K39">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="L39">
         <v>13</v>
       </c>
-      <c r="D39">
+      <c r="M39">
         <v>13</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>67</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K39">
-        <v>0.5782312925170068</v>
-      </c>
-      <c r="L39">
-        <v>170</v>
-      </c>
-      <c r="M39">
-        <v>171</v>
-      </c>
       <c r="N39">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>124</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2611,13 +2614,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1501340482573726</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="C40">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2629,19 +2632,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>317</v>
+        <v>64</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K40">
-        <v>0.5757575757575758</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2653,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2661,13 +2664,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.05</v>
+        <v>0.1367292225201072</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2679,19 +2682,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K41">
-        <v>0.5692307692307692</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L41">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2703,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2711,37 +2714,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.01128304319793682</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E42">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>3067</v>
+        <v>280</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K42">
-        <v>0.5690376569037657</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L42">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2753,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>103</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2761,89 +2764,137 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01028517999064984</v>
+        <v>0.01205857019810508</v>
       </c>
       <c r="C43">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D43">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1147</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K43">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="L43">
+        <v>15</v>
+      </c>
+      <c r="M43">
+        <v>15</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.01127940702545923</v>
+      </c>
+      <c r="C44">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>39</v>
+      </c>
+      <c r="E44">
+        <v>0.1</v>
+      </c>
+      <c r="F44">
+        <v>0.9</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>3068</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K44">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="L44">
+        <v>14</v>
+      </c>
+      <c r="M44">
+        <v>14</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.009822263797942002</v>
+      </c>
+      <c r="C45">
+        <v>21</v>
+      </c>
+      <c r="D45">
         <v>26</v>
       </c>
-      <c r="E43">
-        <v>0.15</v>
-      </c>
-      <c r="F43">
-        <v>0.85</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43">
+      <c r="E45">
+        <v>0.19</v>
+      </c>
+      <c r="F45">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
         <v>2117</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K43">
-        <v>0.5652173913043478</v>
-      </c>
-      <c r="L43">
-        <v>13</v>
-      </c>
-      <c r="M43">
-        <v>13</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K44">
-        <v>0.5531914893617021</v>
-      </c>
-      <c r="L44">
-        <v>52</v>
-      </c>
-      <c r="M44">
-        <v>52</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K45">
-        <v>0.550561797752809</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L45">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="M45">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2855,21 +2906,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K46">
-        <v>0.5428571428571428</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L46">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M46">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2881,21 +2932,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K47">
-        <v>0.5416666666666666</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2907,21 +2958,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K48">
-        <v>0.5185185185185185</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2933,21 +2984,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K49">
-        <v>0.4814814814814815</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2959,21 +3010,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K50">
-        <v>0.4761904761904762</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L50">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M50">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2985,21 +3036,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K51">
-        <v>0.4666666666666667</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L51">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3011,21 +3062,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K52">
-        <v>0.4509803921568628</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3037,21 +3088,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K53">
-        <v>0.3728813559322034</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M53">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3063,21 +3114,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K54">
-        <v>0.3561643835616438</v>
+        <v>0.28125</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3089,21 +3140,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K55">
-        <v>0.34375</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3115,21 +3166,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K56">
-        <v>0.3076923076923077</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="L56">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3141,15 +3192,15 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K57">
-        <v>0.2631578947368421</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="L57">
         <v>15</v>
@@ -3167,59 +3218,33 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K58">
-        <v>0.07027027027027027</v>
+        <v>0.005644402634054563</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M58">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K59">
-        <v>0.007521153243497336</v>
-      </c>
-      <c r="L59">
-        <v>24</v>
-      </c>
-      <c r="M59">
-        <v>34</v>
-      </c>
-      <c r="N59">
-        <v>0.71</v>
-      </c>
-      <c r="O59">
-        <v>0.29</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>3167</v>
+        <v>3171</v>
       </c>
     </row>
   </sheetData>
